--- a/createCards/mixed_v0/hitster_data_mixed_v0.xlsx
+++ b/createCards/mixed_v0/hitster_data_mixed_v0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,188 +964,188 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Britney Spears</t>
+          <t>Andrea Bocelli</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Toxic</t>
+          <t>Con Te Partirò</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6I9VzXrHxO9rA9A5euc8Ak</t>
+          <t>https://open.spotify.com/track/7zrpoAJte9o12TzawqgdD0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Andrea Bocelli</t>
+          <t>The Jackson 5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Con Te Partirò</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7zrpoAJte9o12TzawqgdD0</t>
+          <t>https://open.spotify.com/track/6D8kc7RO0rqBLSo2YPflJ5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The Jackson 5</t>
+          <t>Queen</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>We Will Rock You - Remastered 2011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6D8kc7RO0rqBLSo2YPflJ5</t>
+          <t>https://open.spotify.com/track/4pbJqGIASGPr0ZpGpnWkDn</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Queen</t>
+          <t>Spice Girls</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>We Will Rock You - Remastered 2011</t>
+          <t>Wannabe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4pbJqGIASGPr0ZpGpnWkDn</t>
+          <t>https://open.spotify.com/track/1Je1IMUlBXcx1Fz0WE7oPT</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spice Girls</t>
+          <t>Alice Cooper</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Wannabe</t>
+          <t>Poison</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1Je1IMUlBXcx1Fz0WE7oPT</t>
+          <t>https://open.spotify.com/track/5mN9EuBLJooifNddx6z9lF</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alice Cooper</t>
+          <t>Franz Ferdinand</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Poison</t>
+          <t>Take Me Out</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5mN9EuBLJooifNddx6z9lF</t>
+          <t>https://open.spotify.com/track/20I8RduZC2PWMWTDCZuuAN</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Franz Ferdinand</t>
+          <t>Bob Marley &amp; The Wailers</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Take Me Out</t>
+          <t>No Woman No Cry</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/20I8RduZC2PWMWTDCZuuAN</t>
+          <t>https://open.spotify.com/track/3PQLYVskjUeRmRIfECsL0X</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bob Marley &amp; The Wailers</t>
+          <t>Imagine Dragons</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>No Woman No Cry</t>
+          <t>Radioactive</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3PQLYVskjUeRmRIfECsL0X</t>
+          <t>https://open.spotify.com/track/6Ep6BzIOB9tz3P4sWqiiAB</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Imagine Dragons</t>
+          <t>The Rolling Stones</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Radioactive</t>
+          <t>Paint It, Black</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1155,525 +1155,525 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6Ep6BzIOB9tz3P4sWqiiAB</t>
+          <t>https://open.spotify.com/track/1Kvjmr2oqZjzhryoEKzqij</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The Rolling Stones</t>
+          <t>Daryl Hall &amp; John Oates</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Paint It, Black</t>
+          <t>You Make My Dreams (Come True)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1Kvjmr2oqZjzhryoEKzqij</t>
+          <t>https://open.spotify.com/track/4o6BgsqLIBViaGVbx5rbRk</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Daryl Hall &amp; John Oates</t>
+          <t>Cornershop, Norman Cook</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>You Make My Dreams (Come True)</t>
+          <t>Brimful of Asha - Norman Cook Remix Single Version</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4o6BgsqLIBViaGVbx5rbRk</t>
+          <t>https://open.spotify.com/track/3gWZ8TJ6oIpJWQBfrUOksW</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cornershop, Norman Cook</t>
+          <t>The Monkees</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Brimful of Asha - Norman Cook Remix Single Version</t>
+          <t>Daydream Believer</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3gWZ8TJ6oIpJWQBfrUOksW</t>
+          <t>https://open.spotify.com/track/7uEcCGtM1FBBGIhPozhJjv</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Huey Lewis &amp; The News</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Power Of Love</t>
+          <t>She Will Be Loved</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2olVm1lHicpveMAo4AUDRB</t>
+          <t>https://open.spotify.com/track/7sapKrjDij2fpDVj0GxP66</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>The Monkees</t>
+          <t>Sex Pistols</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Daydream Believer</t>
+          <t>God Save The Queen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7uEcCGtM1FBBGIhPozhJjv</t>
+          <t>https://open.spotify.com/track/2mHchPRtQWet3iIS3jANr1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Madonna</t>
+          <t>Backstreet Boys</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hung Up</t>
+          <t>I Want It That Way</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3850dYVgOFIXJh5U4BFEWH</t>
+          <t>https://open.spotify.com/track/47BBI51FKFwOMlIiX6m8ya</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>Talking Heads</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>She Will Be Loved</t>
+          <t>Psycho Killer - 2005 Remaster</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7sapKrjDij2fpDVj0GxP66</t>
+          <t>https://open.spotify.com/track/1i6N76fftMZhijOzFQ5ZtL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mike Posner, Gigamesh</t>
+          <t>Kylie Minogue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cooler Than Me - Single Mix</t>
+          <t>Can't Get You out of My Head</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2V4bv1fNWfTcyRJKmej6Sj</t>
+          <t>https://open.spotify.com/track/3E7ZwUMJFqpsDOJzEkBrQ7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Starship</t>
+          <t>Van Halen</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>We Built This City</t>
+          <t>Jump - 2015 Remaster</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7aHRctaQ7vjxVTVmY8OhAA</t>
+          <t>https://open.spotify.com/track/7N3PAbqfTjSEU1edb2tY8j</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sex Pistols</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>God Save The Queen</t>
+          <t>Hey, Soul Sister</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2mHchPRtQWet3iIS3jANr1</t>
+          <t>https://open.spotify.com/track/0KpfYajJVVGgQ32Dby7e9i</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Vampire Weekend</t>
+          <t>Blondie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A-Punk</t>
+          <t>Call Me</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5dKBaysNJtfpyNTRa5lqDb</t>
+          <t>https://open.spotify.com/track/4qO03RMQm88DdpTJcxlglY</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Backstreet Boys</t>
+          <t>Shawn Mendes, Camila Cabello</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I Want It That Way</t>
+          <t>Señorita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/47BBI51FKFwOMlIiX6m8ya</t>
+          <t>https://open.spotify.com/track/6v3KW9xbzN5yKLt9YKDYA2</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Talking Heads</t>
+          <t>Bruno Mars, Anderson .Paak, Silk Sonic</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Psycho Killer - 2005 Remaster</t>
+          <t>Leave The Door Open</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1i6N76fftMZhijOzFQ5ZtL</t>
+          <t>https://open.spotify.com/track/02VBYrHfVwfEWXk5DXyf0T</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kylie Minogue</t>
+          <t>TLC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Can't Get You out of My Head</t>
+          <t>Waterfalls</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3E7ZwUMJFqpsDOJzEkBrQ7</t>
+          <t>https://open.spotify.com/track/6qspW4YKycviDFjHBOaqUY</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Van Halen</t>
+          <t>Cass Elliot</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jump - 2015 Remaster</t>
+          <t>Make Your Own Kind Of Music</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7N3PAbqfTjSEU1edb2tY8j</t>
+          <t>https://open.spotify.com/track/6H3Wa6hWR9DRMzMSd4pZkT</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>AC/DC</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hey, Soul Sister</t>
+          <t>Highway to Hell</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0KpfYajJVVGgQ32Dby7e9i</t>
+          <t>https://open.spotify.com/track/2zYzyRzz6pRmhPzyfMEC8s</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Blondie</t>
+          <t>Journey</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Call Me</t>
+          <t>Don't Stop Believin' (2022 Remaster)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4qO03RMQm88DdpTJcxlglY</t>
+          <t>https://open.spotify.com/track/5RKQ5NdjSh2QzD4MaunT91</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Shawn Mendes, Camila Cabello</t>
+          <t>The Killers</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Señorita</t>
+          <t>Mr. Brightside</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6v3KW9xbzN5yKLt9YKDYA2</t>
+          <t>https://open.spotify.com/track/003vvx7Niy0yvhvHt4a68B</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bruno Mars, Anderson .Paak, Silk Sonic</t>
+          <t>Adele</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leave The Door Open</t>
+          <t>Rolling in the Deep</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/02VBYrHfVwfEWXk5DXyf0T</t>
+          <t>https://open.spotify.com/track/1eq1wUnLVLg4pdEfx9kajC</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TLC</t>
+          <t>Black Eyed Peas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Waterfalls</t>
+          <t>I Gotta Feeling</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6qspW4YKycviDFjHBOaqUY</t>
+          <t>https://open.spotify.com/track/4vp2J1l5RD4gMZwGFLfRAu</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cass Elliot</t>
+          <t>Fleetwood Mac</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Make Your Own Kind Of Music</t>
+          <t>The Chain</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6H3Wa6hWR9DRMzMSd4pZkT</t>
+          <t>https://open.spotify.com/track/2X6gdRlGOQgfaXU9ALUQFQ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AC/DC</t>
+          <t>Dexys Midnight Runners</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Highway to Hell</t>
+          <t>Come On Eileen</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2zYzyRzz6pRmhPzyfMEC8s</t>
+          <t>https://open.spotify.com/track/0lj15qHIbi7gsO6CLfWbvF</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Journey</t>
+          <t>Cage The Elephant</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Don't Stop Believin' (2022 Remaster)</t>
+          <t>Ain't No Rest For The Wicked - Original Version</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5RKQ5NdjSh2QzD4MaunT91</t>
+          <t>https://open.spotify.com/track/5c5a2Ptu8eyIpljhQHjIqk</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Killers</t>
+          <t>Green Day</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mr. Brightside</t>
+          <t>American Idiot</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,4011 +1683,4121 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/003vvx7Niy0yvhvHt4a68B</t>
+          <t>https://open.spotify.com/track/6nTiIhLmQ3FWhvrGafw2zj</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Adele</t>
+          <t>The Righteous Brothers</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rolling in the Deep</t>
+          <t>Unchained Melody</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1eq1wUnLVLg4pdEfx9kajC</t>
+          <t>https://open.spotify.com/track/2qhASBzpbFhPRtrnZ5lLnz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Black Eyed Peas</t>
+          <t>Rush</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>I Gotta Feeling</t>
+          <t>Tom Sawyer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4vp2J1l5RD4gMZwGFLfRAu</t>
+          <t>https://open.spotify.com/track/1MkoCFGbhPQIDI5lRdAheQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fleetwood Mac</t>
+          <t>Tame Impala</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Chain</t>
+          <t>Let It Happen</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2X6gdRlGOQgfaXU9ALUQFQ</t>
+          <t>https://open.spotify.com/track/2X485T9Z5Ly0xyaghN73ed</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The Kooks</t>
+          <t>The Clash</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naive</t>
+          <t>London Calling</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/29XbgaYB4Hs8vlLmpzkRgj</t>
+          <t>https://open.spotify.com/track/5BXoDYim9Upsv8dsuSJQPa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Amy Winehouse</t>
+          <t>Camila Cabello, Young Thug</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Back To Black</t>
+          <t>Havana (feat. Young Thug)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/30FURVTCpbKyykjSEQzGkH</t>
+          <t>https://open.spotify.com/track/1rfofaqEpACxVEHIZBJe6W</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dexys Midnight Runners</t>
+          <t>Toploader</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Come On Eileen</t>
+          <t>Dancing in the Moonlight</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0lj15qHIbi7gsO6CLfWbvF</t>
+          <t>https://open.spotify.com/track/3Fzlg5r1IjhLk2qRw667od</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cage The Elephant</t>
+          <t>Radiohead</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ain't No Rest For The Wicked - Original Version</t>
+          <t>Creep</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5c5a2Ptu8eyIpljhQHjIqk</t>
+          <t>https://open.spotify.com/track/6b2oQwSGFkzsMtQruIWm2p</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Green Day</t>
+          <t>David Bowie</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>American Idiot</t>
+          <t>Space Oddity - 2015 Remaster</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6nTiIhLmQ3FWhvrGafw2zj</t>
+          <t>https://open.spotify.com/track/72Z17vmmeQKAg8bptWvpVG</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>The Righteous Brothers</t>
+          <t>The Beach Boys</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Unchained Melody</t>
+          <t>Good Vibrations - Remastered 2001</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2qhASBzpbFhPRtrnZ5lLnz</t>
+          <t>https://open.spotify.com/track/5t9KYe0Fhd5cW6UYT4qP8f</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rush</t>
+          <t>Belinda Carlisle</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tom Sawyer</t>
+          <t>Heaven Is A Place On Earth</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1MkoCFGbhPQIDI5lRdAheQ</t>
+          <t>https://open.spotify.com/track/4V9BTST4BSkvOL4xIQNHuS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tame Impala</t>
+          <t>Avicii</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Let It Happen</t>
+          <t>Levels - Radio Edit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2X485T9Z5Ly0xyaghN73ed</t>
+          <t>https://open.spotify.com/track/5UqCQaDshqbIk3pkhy4Pjg</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>The Clash</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>London Calling</t>
+          <t>Stronger (What Doesn't Kill You)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5BXoDYim9Upsv8dsuSJQPa</t>
+          <t>https://open.spotify.com/track/1nInOsHbtotAmEOQhtvnzP</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Camila Cabello, Young Thug</t>
+          <t>Scissor Sisters</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Havana (feat. Young Thug)</t>
+          <t>I Don't Feel Like Dancin' - Radio Edit</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1rfofaqEpACxVEHIZBJe6W</t>
+          <t>https://open.spotify.com/track/1qEHgdFqUxFebMPk8s2HLY</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Toploader</t>
+          <t>The Proclaimers</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dancing in the Moonlight</t>
+          <t>I'm Gonna Be (500 Miles)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3Fzlg5r1IjhLk2qRw667od</t>
+          <t>https://open.spotify.com/track/67iAlVNDDdddxqSD2EZhFs</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Radiohead</t>
+          <t>The Fray</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Creep</t>
+          <t>How to Save a Life</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6b2oQwSGFkzsMtQruIWm2p</t>
+          <t>https://open.spotify.com/track/5fVZC9GiM4e8vu99W0Xf6J</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>David Bowie</t>
+          <t>MIKA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Space Oddity - 2015 Remaster</t>
+          <t>Relax, Take It Easy</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/72Z17vmmeQKAg8bptWvpVG</t>
+          <t>https://open.spotify.com/track/0KM2y796j63t5RHhvRUxld</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>The Beach Boys</t>
+          <t>Stevie Wonder</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Good Vibrations - Remastered 2001</t>
+          <t>Sir Duke</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5t9KYe0Fhd5cW6UYT4qP8f</t>
+          <t>https://open.spotify.com/track/4pNiE4LCVV74vfIBaUHm1b</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tina Turner</t>
+          <t>Gloria Gaynor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Best</t>
+          <t>I Will Survive</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7gP0iSDthTnTTxD3uUDRTA</t>
+          <t>https://open.spotify.com/track/7rIovIsXE6kMn629b7kDig</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Belinda Carlisle</t>
+          <t>Galantis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Heaven Is A Place On Earth</t>
+          <t>No Money</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4V9BTST4BSkvOL4xIQNHuS</t>
+          <t>https://open.spotify.com/track/0gb1J5UrTpzaU1s3nupgCd</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Avicii</t>
+          <t>James Brown</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Levels - Radio Edit</t>
+          <t>It's A Man's, Man's, Man's World</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5UqCQaDshqbIk3pkhy4Pjg</t>
+          <t>https://open.spotify.com/track/3BcH252CGECgOWfKBjAaBC</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>Edwin Starr</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Stronger (What Doesn't Kill You)</t>
+          <t>War</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1nInOsHbtotAmEOQhtvnzP</t>
+          <t>https://open.spotify.com/track/4ZEEcEMGjkWOfZNBcIB9yE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Scissor Sisters</t>
+          <t>Mike Posner, Seeb</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>I Don't Feel Like Dancin' - Radio Edit</t>
+          <t>I Took A Pill In Ibiza - Seeb Remix</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1qEHgdFqUxFebMPk8s2HLY</t>
+          <t>https://open.spotify.com/track/0vbtURX4qv1l7besfwmnD8</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>The Proclaimers</t>
+          <t>ABBA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>I'm Gonna Be (500 Miles)</t>
+          <t>Mamma Mia</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/67iAlVNDDdddxqSD2EZhFs</t>
+          <t>https://open.spotify.com/track/22NN4BS1AlqVbyKIWExgON</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>The Fray</t>
+          <t>The Human League</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>How to Save a Life</t>
+          <t>Don't You Want Me</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5fVZC9GiM4e8vu99W0Xf6J</t>
+          <t>https://open.spotify.com/track/3L7RtEcu1Hw3OXrpnthngx</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MIKA</t>
+          <t>Boney M.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Relax, Take It Easy</t>
+          <t>Rasputin - Single Version</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0KM2y796j63t5RHhvRUxld</t>
+          <t>https://open.spotify.com/track/67hbP9PFQZrb4XZc3TzB0s</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Stevie Wonder</t>
+          <t>Whitney Houston</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sir Duke</t>
+          <t>I Wanna Dance with Somebody (Who Loves Me)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4pNiE4LCVV74vfIBaUHm1b</t>
+          <t>https://open.spotify.com/track/2tUBqZG2AbRi7Q0BIrVrEj</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gloria Gaynor</t>
+          <t>Lorde</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>I Will Survive</t>
+          <t>Royals</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7rIovIsXE6kMn629b7kDig</t>
+          <t>https://open.spotify.com/track/2dLLR6qlu5UJ5gk0dKz0h3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Galantis</t>
+          <t>Ava Max</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>No Money</t>
+          <t>Sweet but Psycho</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0gb1J5UrTpzaU1s3nupgCd</t>
+          <t>https://open.spotify.com/track/25sgk305KZfyuqVBQIahim</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>James Brown</t>
+          <t>Gerry Rafferty</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>It's A Man's, Man's, Man's World</t>
+          <t>Baker Street</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3BcH252CGECgOWfKBjAaBC</t>
+          <t>https://open.spotify.com/track/5gOd6zDC8vhlYjqbQdJVWP</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Edwin Starr</t>
+          <t>Leonard Cohen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>War</t>
+          <t>Hallelujah</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4ZEEcEMGjkWOfZNBcIB9yE</t>
+          <t>https://open.spotify.com/track/7yzbimr8WVyAtBX3Eg6UL9</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mike Posner, Seeb</t>
+          <t>Take That</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I Took A Pill In Ibiza - Seeb Remix</t>
+          <t>Shine</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0vbtURX4qv1l7besfwmnD8</t>
+          <t>https://open.spotify.com/track/1hrsEHe39nYu1pJx0Nrxd7</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ABBA</t>
+          <t>Al Green</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mamma Mia</t>
+          <t>Take Me to the River</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/22NN4BS1AlqVbyKIWExgON</t>
+          <t>https://open.spotify.com/track/62r1CS9zL1FL5Ilb7hLX7n</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The Human League</t>
+          <t>The Script</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Don't You Want Me</t>
+          <t>Breakeven</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3L7RtEcu1Hw3OXrpnthngx</t>
+          <t>https://open.spotify.com/track/285hMzLhJwHVLe9QT9qilk</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Boney M.</t>
+          <t>10cc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rasputin - Single Version</t>
+          <t>I'm Not In Love</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/67hbP9PFQZrb4XZc3TzB0s</t>
+          <t>https://open.spotify.com/track/5HQEmiV2lKnSO6qa2fsR7x</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Whitney Houston</t>
+          <t>Tom Petty</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I Wanna Dance with Somebody (Who Loves Me)</t>
+          <t>Free Fallin'</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2tUBqZG2AbRi7Q0BIrVrEj</t>
+          <t>https://open.spotify.com/track/5tVA6TkbaAH9QMITTQRrNv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lorde</t>
+          <t>Florence + The Machine</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Royals</t>
+          <t>Dog Days Are Over</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2dLLR6qlu5UJ5gk0dKz0h3</t>
+          <t>https://open.spotify.com/track/456WNXWhDwYOSf5SpTuqxd</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ava Max</t>
+          <t>Tiffany</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sweet but Psycho</t>
+          <t>I Think We're Alone Now</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/25sgk305KZfyuqVBQIahim</t>
+          <t>https://open.spotify.com/track/4uvjOKsp7mSjrDhWdkLPBY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gerry Rafferty</t>
+          <t>McFly</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Baker Street</t>
+          <t>Five Colours In Her Hair</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5gOd6zDC8vhlYjqbQdJVWP</t>
+          <t>https://open.spotify.com/track/26QkYH0dmzPQBprter9Jsw</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Leonard Cohen</t>
+          <t>P!nk</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hallelujah</t>
+          <t>Raise Your Glass</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7yzbimr8WVyAtBX3Eg6UL9</t>
+          <t>https://open.spotify.com/track/1gv4xPanImH17bKZ9rOveR</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Creedence Clearwater Revival</t>
+          <t>Of Monsters and Men</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fortunate Son</t>
+          <t>Little Talks</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4BP3uh0hFLFRb5cjsgLqDh</t>
+          <t>https://open.spotify.com/track/2ihCaVdNZmnHZWt0fvAM7B</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Take That</t>
+          <t>Enya</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Shine</t>
+          <t>Orinoco Flow - 2009 Remaster</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1hrsEHe39nYu1pJx0Nrxd7</t>
+          <t>https://open.spotify.com/track/4bQNusmmVudLxIiexglzh6</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Al Green</t>
+          <t>Neil Diamond</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Take Me to the River</t>
+          <t>Sweet Caroline</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/62r1CS9zL1FL5Ilb7hLX7n</t>
+          <t>https://open.spotify.com/track/62AuGbAkt8Ox2IrFFb8GKV</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>The Script</t>
+          <t>Jessie J</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Breakeven</t>
+          <t>Domino</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/285hMzLhJwHVLe9QT9qilk</t>
+          <t>https://open.spotify.com/track/2fQxE0jVrjNMT9oJAXtSJR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>10cc</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>I'm Not In Love</t>
+          <t>yes, and?</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5HQEmiV2lKnSO6qa2fsR7x</t>
+          <t>https://open.spotify.com/track/5D34wRmbFS29AjtTOP2QJe</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tom Petty</t>
+          <t>Nicki Minaj</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Free Fallin'</t>
+          <t>Starships</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5tVA6TkbaAH9QMITTQRrNv</t>
+          <t>https://open.spotify.com/track/2EBCVPNAG46nbgs6jXPGvv</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Florence + The Machine</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Dog Days Are Over</t>
+          <t>Mercy</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/456WNXWhDwYOSf5SpTuqxd</t>
+          <t>https://open.spotify.com/track/1zusIxNqJu8i4g6P6hJ2Qa</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tiffany</t>
+          <t>A Flock Of Seagulls</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I Think We're Alone Now</t>
+          <t>I Ran</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4uvjOKsp7mSjrDhWdkLPBY</t>
+          <t>https://open.spotify.com/track/1kDWbI0qgA2a11idtF2xNx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>McFly</t>
+          <t>John Lennon</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Five Colours In Her Hair</t>
+          <t>Imagine - Remastered 2010</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/26QkYH0dmzPQBprter9Jsw</t>
+          <t>https://open.spotify.com/track/7pKfPomDEeI4TPT6EOYjn9</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>P!nk</t>
+          <t>Billy Joel</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Raise Your Glass</t>
+          <t>Vienna</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1gv4xPanImH17bKZ9rOveR</t>
+          <t>https://open.spotify.com/track/4U45aEWtQhrm8A5mxPaFZ7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Elton John</t>
+          <t>Passenger</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>I'm Still Standing</t>
+          <t>Let Her Go</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0lzpfrTARexLFXEACKSXTh</t>
+          <t>https://open.spotify.com/track/2jyjhRf6DVbMPU5zxagN2h</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Of Monsters and Men</t>
+          <t>Lewis Capaldi</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Little Talks</t>
+          <t>Someone You Loved</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2ihCaVdNZmnHZWt0fvAM7B</t>
+          <t>https://open.spotify.com/track/7qEHsqek33rTcFNT9PFqLf</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Enya</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Orinoco Flow - 2009 Remaster</t>
+          <t>Fix You</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4bQNusmmVudLxIiexglzh6</t>
+          <t>https://open.spotify.com/track/7LVHVU3tWfcxj5aiPFEW4Q</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Neil Diamond</t>
+          <t>Bryan Adams</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sweet Caroline</t>
+          <t>Summer Of '69</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/62AuGbAkt8Ox2IrFFb8GKV</t>
+          <t>https://open.spotify.com/track/6oWpGuwokWJ4EcWgVQPdUt</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jessie J</t>
+          <t>M.I.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Domino</t>
+          <t>Paper Planes</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2fQxE0jVrjNMT9oJAXtSJR</t>
+          <t>https://open.spotify.com/track/3ZlFUr0RBrUYYsmlcFvD0e</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>yes, and?</t>
+          <t>Adore You</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5D34wRmbFS29AjtTOP2QJe</t>
+          <t>https://open.spotify.com/track/3jjujdWJ72nww5eGnfs2E7</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Nicki Minaj</t>
+          <t>Tears For Fears</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Starships</t>
+          <t>Everybody Wants To Rule The World</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2EBCVPNAG46nbgs6jXPGvv</t>
+          <t>https://open.spotify.com/track/4RvWPyQ5RL0ao9LPZeSouE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Guns N' Roses</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mercy</t>
+          <t>Paradise City</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1zusIxNqJu8i4g6P6hJ2Qa</t>
+          <t>https://open.spotify.com/track/3YBZIN3rekqsKxbJc9FZko</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A Flock Of Seagulls</t>
+          <t>KT Tunstall</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>I Ran</t>
+          <t>Suddenly I See</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1kDWbI0qgA2a11idtF2xNx</t>
+          <t>https://open.spotify.com/track/5p9XWUdvbUzmPCukOmwoU3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>John Lennon</t>
+          <t>The Police</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Imagine - Remastered 2010</t>
+          <t>Every Breath You Take - Remastered 2003</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7pKfPomDEeI4TPT6EOYjn9</t>
+          <t>https://open.spotify.com/track/5C0LFQARavkPpn7JgA4sLk</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Billy Joel</t>
+          <t>Pink Floyd</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Breathe (In The Air) - 2011 Remastered Version</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4U45aEWtQhrm8A5mxPaFZ7</t>
+          <t>https://open.spotify.com/track/3zJRvtQkHQRTNEXSY8jQPR</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Passenger</t>
+          <t>Oasis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Let Her Go</t>
+          <t>Champagne Supernova - Remastered</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2jyjhRf6DVbMPU5zxagN2h</t>
+          <t>https://open.spotify.com/track/2A7GGXmTlXuH9LOvBXgOX4</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lewis Capaldi</t>
+          <t>One Direction</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Someone You Loved</t>
+          <t>Night Changes</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7qEHsqek33rTcFNT9PFqLf</t>
+          <t>https://open.spotify.com/track/5O2P9iiztwhomNh8xkR9lJ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Corona</t>
+          <t>Arctic Monkeys</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Rhythm of the Night</t>
+          <t>Do I Wanna Know?</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0ofMkI3jzmGCElAOgOLeo3</t>
+          <t>https://open.spotify.com/track/5FVd6KXrgO9B3JPmC8OPst</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Taylor Swift</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fix You</t>
+          <t>Shake It Off</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7LVHVU3tWfcxj5aiPFEW4Q</t>
+          <t>https://open.spotify.com/track/0cqRj7pUJDkTCEsJkx8snD</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bryan Adams</t>
+          <t>Seal</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Summer Of '69</t>
+          <t>Kiss from a Rose</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6oWpGuwokWJ4EcWgVQPdUt</t>
+          <t>https://open.spotify.com/track/3YKptz29AsOlm7WAVnztBh</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>M.I.A.</t>
+          <t>Prince</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Paper Planes</t>
+          <t>Kiss</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3ZlFUr0RBrUYYsmlcFvD0e</t>
+          <t>https://open.spotify.com/track/62LJFaYihsdVrrkgUOJC05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Harry Styles</t>
+          <t>Twenty One Pilots</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Adore You</t>
+          <t>Stressed Out</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3jjujdWJ72nww5eGnfs2E7</t>
+          <t>https://open.spotify.com/track/3CRDbSIZ4r5MsZ0YwxuEkn</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Tears For Fears</t>
+          <t>Nickelback</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Everybody Wants To Rule The World</t>
+          <t>Rockstar</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4RvWPyQ5RL0ao9LPZeSouE</t>
+          <t>https://open.spotify.com/track/3RlsVPIIs5KFhLFhxZ4iDF</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Guns N' Roses</t>
+          <t>Scouting For Girls</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Paradise City</t>
+          <t>She's So Lovely</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3YBZIN3rekqsKxbJc9FZko</t>
+          <t>https://open.spotify.com/track/7EBt4nrQflTtyqbrSWvK5E</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>KT Tunstall</t>
+          <t>The Animals</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Suddenly I See</t>
+          <t>House of the Rising Sun</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5p9XWUdvbUzmPCukOmwoU3</t>
+          <t>https://open.spotify.com/track/3XC7Jd6SfrQYKZJ6inyRHK</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>The Police</t>
+          <t>Rachel Platten</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Every Breath You Take - Remastered 2003</t>
+          <t>Fight Song</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5C0LFQARavkPpn7JgA4sLk</t>
+          <t>https://open.spotify.com/track/37f4ITSlgPX81ad2EvmVQr</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pink Floyd</t>
+          <t>Sam &amp; Dave</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Breathe (In The Air) - 2011 Remastered Version</t>
+          <t>Soul Man</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3zJRvtQkHQRTNEXSY8jQPR</t>
+          <t>https://open.spotify.com/track/4eGHlplaq1ME8oetnTuFFf</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Oasis</t>
+          <t>Robbie Williams</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Champagne Supernova - Remastered</t>
+          <t>Let Me Entertain You</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2A7GGXmTlXuH9LOvBXgOX4</t>
+          <t>https://open.spotify.com/track/0SLtqCrXBRrnkxSOMA3X4W</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>One Direction</t>
+          <t>Blondie</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Night Changes</t>
+          <t>One Way Or Another - Remastered 2001</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5O2P9iiztwhomNh8xkR9lJ</t>
+          <t>https://open.spotify.com/track/4cQJ27R11K634x5qCOwKW5</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Arctic Monkeys</t>
+          <t>a-ha</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Do I Wanna Know?</t>
+          <t>Take on Me</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5FVd6KXrgO9B3JPmC8OPst</t>
+          <t>https://open.spotify.com/track/2WfaOiMkCvy7F5fcp2zZ8L</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Taylor Swift</t>
+          <t>The Jam</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Shake It Off</t>
+          <t>English Rose - 1997 Remaster</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0cqRj7pUJDkTCEsJkx8snD</t>
+          <t>https://open.spotify.com/track/2R5zO3Zi0Of0v1DyxusWbk</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Jet</t>
+          <t>Wilson Pickett</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Are You Gonna Be My Girl</t>
+          <t>Land of 1000 Dances</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/305WCRhhS10XUcH6AEwZk6</t>
+          <t>https://open.spotify.com/track/76ICmoJ4PcoMWoooaTxnQs</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Seal</t>
+          <t>Shakira, Wyclef Jean</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kiss from a Rose</t>
+          <t>Hips Don't Lie (feat. Wyclef Jean)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3YKptz29AsOlm7WAVnztBh</t>
+          <t>https://open.spotify.com/track/3ZFTkvIE7kyPt6Nu3PEa7V</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Prince</t>
+          <t>La Roux</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kiss</t>
+          <t>Bulletproof</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/62LJFaYihsdVrrkgUOJC05</t>
+          <t>https://open.spotify.com/track/6lUY6MoqGgPnA27PHYxem5</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Twenty One Pilots</t>
+          <t>Vanessa Carlton</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Stressed Out</t>
+          <t>A Thousand Miles</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3CRDbSIZ4r5MsZ0YwxuEkn</t>
+          <t>https://open.spotify.com/track/4w1lzcaoZ1IC2K5TwjalRP</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nickelback</t>
+          <t>Depeche Mode</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Rockstar</t>
+          <t>Just Can't Get Enough</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3RlsVPIIs5KFhLFhxZ4iDF</t>
+          <t>https://open.spotify.com/track/0qi4b1l0eT3jpzeNHeFXDT</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Scouting For Girls</t>
+          <t>Nena</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>She's So Lovely</t>
+          <t>99 Luftballons</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7EBt4nrQflTtyqbrSWvK5E</t>
+          <t>https://open.spotify.com/track/6HA97v4wEGQ5TUClRM0XLc</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>The Animals</t>
+          <t>Nirvana</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>House of the Rising Sun</t>
+          <t>Smells Like Teen Spirit</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3XC7Jd6SfrQYKZJ6inyRHK</t>
+          <t>https://open.spotify.com/track/1f3yAtsJtY87CTmM8RLnxf</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Rachel Platten</t>
+          <t>Lou Bega</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fight Song</t>
+          <t>Mambo No. 5 (a Little Bit of...)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/37f4ITSlgPX81ad2EvmVQr</t>
+          <t>https://open.spotify.com/track/6x4tKaOzfNJpEJHySoiJcs</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sam &amp; Dave</t>
+          <t>The Lumineers</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Soul Man</t>
+          <t>Ho Hey</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4eGHlplaq1ME8oetnTuFFf</t>
+          <t>https://open.spotify.com/track/5BSndweF91KDqyxANsZcQH</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Busted</t>
+          <t>Earth, Wind &amp; Fire</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Year 3000</t>
+          <t>September</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0zjB7ewBWnMgQDMQpFzt92</t>
+          <t>https://open.spotify.com/track/7Cuk8jsPPoNYQWXK9XRFvG</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Robbie Williams</t>
+          <t>Deep Purple</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Let Me Entertain You</t>
+          <t>Smoke On The Water - Remastered 2012</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0SLtqCrXBRrnkxSOMA3X4W</t>
+          <t>https://open.spotify.com/track/5MMnwYs0hIxkENRsbkWJ2G</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Blondie</t>
+          <t>Lady Gaga, Colby O'Donis</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>One Way Or Another - Remastered 2001</t>
+          <t>Just Dance</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4cQJ27R11K634x5qCOwKW5</t>
+          <t>https://open.spotify.com/track/3E5XrOtqMAs7p2wKhwgOjf</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>a-ha</t>
+          <t>Tracy Chapman</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Take on Me</t>
+          <t>Fast Car</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2WfaOiMkCvy7F5fcp2zZ8L</t>
+          <t>https://open.spotify.com/track/2M9ro2krNb7nr7HSprkEgo</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The Jam</t>
+          <t>Tom Jones</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>English Rose - 1997 Remaster</t>
+          <t>It's Not Unusual</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2R5zO3Zi0Of0v1DyxusWbk</t>
+          <t>https://open.spotify.com/track/3TlIt0ReIxPsVZcOEivT5U</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Wilson Pickett</t>
+          <t>Daft Punk</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Land of 1000 Dances</t>
+          <t>Around the World</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/76ICmoJ4PcoMWoooaTxnQs</t>
+          <t>https://open.spotify.com/track/1pKYYY0dkg23sQQXi0Q5zN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Shakira, Wyclef Jean</t>
+          <t>Aretha Franklin</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Hips Don't Lie (feat. Wyclef Jean)</t>
+          <t>Respect</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3ZFTkvIE7kyPt6Nu3PEa7V</t>
+          <t>https://open.spotify.com/track/7s25THrKz86DM225dOYwnr</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>La Roux</t>
+          <t>The Fratellis</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bulletproof</t>
+          <t>Chelsea Dagger</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6lUY6MoqGgPnA27PHYxem5</t>
+          <t>https://open.spotify.com/track/1bCmvezFg5MRcENzCGG1Cy</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Vanessa Carlton</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>A Thousand Miles</t>
+          <t>Sorry</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4w1lzcaoZ1IC2K5TwjalRP</t>
+          <t>https://open.spotify.com/track/09CtPGIpYB4BrO8qb1RGsF</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Depeche Mode</t>
+          <t>Ellie Goulding</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Just Can't Get Enough</t>
+          <t>Burn</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0qi4b1l0eT3jpzeNHeFXDT</t>
+          <t>https://open.spotify.com/track/2GgxS8bUT5G25QJTsfSv0R</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nena</t>
+          <t>Dr. Dre, Eminem, Xzibit</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>99 Luftballons</t>
+          <t>What's The Difference</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6HA97v4wEGQ5TUClRM0XLc</t>
+          <t>https://open.spotify.com/track/1SWVDBtw6h3tm9OehOkDhv</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Nirvana</t>
+          <t>Daft Punk</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Smells Like Teen Spirit</t>
+          <t>One More Time</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1f3yAtsJtY87CTmM8RLnxf</t>
+          <t>https://open.spotify.com/track/0DiWol3AO6WpXZgp0goxAV</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lou Bega</t>
+          <t>John Newman</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Mambo No. 5 (a Little Bit of...)</t>
+          <t>Love Me Again</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6x4tKaOzfNJpEJHySoiJcs</t>
+          <t>https://open.spotify.com/track/5TbzAWWc5eJaANpA9kfGCd</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Razorlight</t>
+          <t>Black Sabbath</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>America</t>
+          <t>Paranoid</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6bS7DqTuzrpkluB7boWmw2</t>
+          <t>https://open.spotify.com/track/1jzDzZWeSDBg5fhNc3tczV</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>The Lumineers</t>
+          <t>Kool &amp; The Gang</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ho Hey</t>
+          <t>Celebration</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5BSndweF91KDqyxANsZcQH</t>
+          <t>https://open.spotify.com/track/3K7Q9PHUWPTaknlbFPThn2</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Earth, Wind &amp; Fire</t>
+          <t>Public Enemy</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>September</t>
+          <t>Harder Than You Think</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7Cuk8jsPPoNYQWXK9XRFvG</t>
+          <t>https://open.spotify.com/track/5YpZh8wfS4moRBk0ijNcXr</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Deep Purple</t>
+          <t>George Michael</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Smoke On The Water - Remastered 2012</t>
+          <t>Faith - Remastered</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5MMnwYs0hIxkENRsbkWJ2G</t>
+          <t>https://open.spotify.com/track/0HEmnAUT8PHznIAAmVXqFJ</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lady Gaga, Colby O'Donis</t>
+          <t>M83</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Just Dance</t>
+          <t>Midnight City</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3E5XrOtqMAs7p2wKhwgOjf</t>
+          <t>https://open.spotify.com/track/6M9DkAAuh4ibDchrc8GBAn</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Tracy Chapman</t>
+          <t>Kanye West</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fast Car</t>
+          <t>Heartless</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2M9ro2krNb7nr7HSprkEgo</t>
+          <t>https://open.spotify.com/track/4ZMJshw6UOvaTWWThYtEoW</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Coldplay</t>
+          <t>Paolo Nutini</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Viva La Vida</t>
+          <t>New Shoes</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3zzwBtusqxBiGRsGpsnN3F</t>
+          <t>https://open.spotify.com/track/04a7TQAQPkXBosRi7IovlM</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Tom Jones</t>
+          <t>Foo Fighters</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>It's Not Unusual</t>
+          <t>The Pretender</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3TlIt0ReIxPsVZcOEivT5U</t>
+          <t>https://open.spotify.com/track/7x8dCjCr0x6x2lXKujYD34</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Daft Punk</t>
+          <t>Gorillaz</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Around the World</t>
+          <t>Feel Good Inc.</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1pKYYY0dkg23sQQXi0Q5zN</t>
+          <t>https://open.spotify.com/track/0d28khcov6AiegSCpG5TuT</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Red Hot Chili Peppers</t>
+          <t>Supergrass</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Californication</t>
+          <t>Alright</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/48UPSzbZjgc449aqz8bxox</t>
+          <t>https://open.spotify.com/track/5xC8uOesnn0udeXAYlAnoY</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Bon Jovi</t>
+          <t>Eric Clapton</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>You Give Love A Bad Name</t>
+          <t>Tears in Heaven - Acoustic Live</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5VVwwfK6Cp9IydkhKfJUEq</t>
+          <t>https://open.spotify.com/track/3UqHlIBI771FNCiLY5MKrp</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Aretha Franklin</t>
+          <t>Pat Benatar</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Respect</t>
+          <t>Hit Me With Your Best Shot</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7s25THrKz86DM225dOYwnr</t>
+          <t>https://open.spotify.com/track/0vOkmmJEtjuFZDzrQSFzEE</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Owl City</t>
+          <t>Cher</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Fireflies</t>
+          <t>The Shoop Shoop Song (It's In His Kiss)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3DamFFqW32WihKkTVlwTYQ</t>
+          <t>https://open.spotify.com/track/5oV1YjM2rtyZ55txHHsFUu</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>The Fratellis</t>
+          <t>50 Cent</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Chelsea Dagger</t>
+          <t>In Da Club</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1bCmvezFg5MRcENzCGG1Cy</t>
+          <t>https://open.spotify.com/track/7iL6o9tox1zgHpKUfh9vuC</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>The Offspring</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sorry</t>
+          <t>You're Gonna Go Far, Kid</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/09CtPGIpYB4BrO8qb1RGsF</t>
+          <t>https://open.spotify.com/track/6TfBA04WJ3X1d1wXhaCFVT</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Iggy Pop</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Drive By</t>
+          <t>The Passenger</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7zWj09xkFgA9tcV6YhfU6q</t>
+          <t>https://open.spotify.com/track/3yP0cohcr97BUNJcgvmSVg</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ellie Goulding</t>
+          <t>The Cranberries</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Burn</t>
+          <t>Zombie</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2GgxS8bUT5G25QJTsfSv0R</t>
+          <t>https://open.spotify.com/track/6xy6jNeNTYwjnKTDzMyHw2</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Dr. Dre, Eminem, Xzibit</t>
+          <t>Kim Larsen</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>What's The Difference</t>
+          <t>Papirsklip</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1SWVDBtw6h3tm9OehOkDhv</t>
+          <t>https://open.spotify.com/track/0B52e8kJrbBzUfTMP1O4Ss</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Daft Punk</t>
+          <t>Justice</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>One More Time</t>
+          <t>D.A.N.C.E</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0DiWol3AO6WpXZgp0goxAV</t>
+          <t>https://open.spotify.com/track/33yAEqzKXexYM3WlOYtTfQ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>John Newman</t>
+          <t>Manu Chao</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Love Me Again</t>
+          <t>Me Gustas Tu</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5TbzAWWc5eJaANpA9kfGCd</t>
+          <t>https://open.spotify.com/track/6b37xrsNCWYIUphFBazqD6</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Black Sabbath</t>
+          <t>Quincy Jones</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Paranoid</t>
+          <t>Soul Bossa Nova</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1jzDzZWeSDBg5fhNc3tczV</t>
+          <t>https://open.spotify.com/track/0Jw3cPBXlGnA6DEJrZSTI0</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Kool &amp; The Gang</t>
+          <t>Stan Getz</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Celebration</t>
+          <t>The Girl From Ipanema</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3K7Q9PHUWPTaknlbFPThn2</t>
+          <t>https://open.spotify.com/track/7znjbX9XdoQayIrVNdd50Z</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Public Enemy</t>
+          <t>Elvis Presley</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Harder Than You Think</t>
+          <t>Blue Suede Shoes</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5YpZh8wfS4moRBk0ijNcXr</t>
+          <t>https://open.spotify.com/track/47gmoUrZV3w20JAnQOZMcO</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>George Michael</t>
+          <t>Elvis Presley</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Faith - Remastered</t>
+          <t>Burning Love</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0HEmnAUT8PHznIAAmVXqFJ</t>
+          <t>https://open.spotify.com/track/7zMUCLm1TN9o9JlLISztxO</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>M83</t>
+          <t>Leon Bridges</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Midnight City</t>
+          <t>Coming Home</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6M9DkAAuh4ibDchrc8GBAn</t>
+          <t>https://open.spotify.com/track/65GbQI9VDTs7vo6MJL2iJA</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Kanye West</t>
+          <t>Mayer Hawthorne</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Heartless</t>
+          <t>The Walk</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4ZMJshw6UOvaTWWThYtEoW</t>
+          <t>https://open.spotify.com/track/7tBZa65xUKMMan9tIMPqbi</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Paolo Nutini</t>
+          <t>Antique</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>New Shoes</t>
+          <t>Opa Opa</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/04a7TQAQPkXBosRi7IovlM</t>
+          <t>https://open.spotify.com/track/0YWmrHLItfjD7pJ8NzlXke</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Foo Fighters</t>
+          <t>The Cure</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>The Pretender</t>
+          <t>Friday I'm In Love</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7x8dCjCr0x6x2lXKujYD34</t>
+          <t>https://open.spotify.com/track/4QlzkaRHtU8gAdwqjWmO8n</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gorillaz</t>
+          <t>MC Hammer</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Feel Good Inc.</t>
+          <t>U Can't Touch This</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0d28khcov6AiegSCpG5TuT</t>
+          <t>https://open.spotify.com/track/1B75hgRqe7A4fwee3g3Wmu</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Supergrass</t>
+          <t>Shania Twain</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Alright</t>
+          <t>Man! I Feel Like A Woman!</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5xC8uOesnn0udeXAYlAnoY</t>
+          <t>https://open.spotify.com/track/6sxptembJVty4sNtcPMAVz</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Eric Clapton</t>
+          <t>Otis Redding</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tears in Heaven - Acoustic Live</t>
+          <t>(Sittin' On) the Dock of the Bay</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3UqHlIBI771FNCiLY5MKrp</t>
+          <t>https://open.spotify.com/track/4Y4Gd3ty8uut6Qw43c7yJc</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Pat Benatar</t>
+          <t>The Supremes</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Hit Me With Your Best Shot</t>
+          <t>Baby Love</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0vOkmmJEtjuFZDzrQSFzEE</t>
+          <t>https://open.spotify.com/track/5uES1C2NgkdrNHiCwf9jRr</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cher</t>
+          <t>Marvin Gaye, Tammi Terrell</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>The Shoop Shoop Song (It's In His Kiss)</t>
+          <t>Ain't No Mountain High Enough</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5oV1YjM2rtyZ55txHHsFUu</t>
+          <t>https://open.spotify.com/track/7tqhbajSfrz2F7E1Z75ASX</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>50 Cent</t>
+          <t>The Ronettes</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>In Da Club</t>
+          <t>Be My Baby</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7iL6o9tox1zgHpKUfh9vuC</t>
+          <t>https://open.spotify.com/track/1WN4uNclrDuczTO3bCr8s1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>The Offspring</t>
+          <t>Frank Sinatra, Count Basie</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>You're Gonna Go Far, Kid</t>
+          <t>Fly Me To The Moon (In Other Words)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6TfBA04WJ3X1d1wXhaCFVT</t>
+          <t>https://open.spotify.com/track/5b7OgznPJJr1vHNYGyvxau</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Iggy Pop</t>
+          <t>Bobby Hebb</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>The Passenger</t>
+          <t>Sunny</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/3yP0cohcr97BUNJcgvmSVg</t>
+          <t>https://open.spotify.com/track/4vju55Ag7apDL2CfotuE7Q</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The Cranberries</t>
+          <t>Etta James</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Zombie</t>
+          <t>At Last</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6xy6jNeNTYwjnKTDzMyHw2</t>
+          <t>https://open.spotify.com/track/4Hhv2vrOTy89HFRcjU3QOx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Kim Larsen</t>
+          <t>Booker T. &amp; the M.G.'s</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Papirsklip</t>
+          <t>Green Onions</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0B52e8kJrbBzUfTMP1O4Ss</t>
+          <t>https://open.spotify.com/track/6KKcey1w86oP0qxN8frbfD</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Justice</t>
+          <t>Lesley Gore</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>D.A.N.C.E</t>
+          <t>It's My Party</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/33yAEqzKXexYM3WlOYtTfQ</t>
+          <t>https://open.spotify.com/track/1Pq47iFLC5U7j8xeNiNcuS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Manu Chao</t>
+          <t>French 79, Kid Francescoli</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Me Gustas Tu</t>
+          <t>Lovin' Feeling</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6b37xrsNCWYIUphFBazqD6</t>
+          <t>https://open.spotify.com/track/5pxtj7cCnv2hZe6mbS2MBx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Quincy Jones</t>
+          <t>Laufey</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Soul Bossa Nova</t>
+          <t>From The Start</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0Jw3cPBXlGnA6DEJrZSTI0</t>
+          <t>https://open.spotify.com/track/43iIQbw5hx986dUEZbr3eN</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Stan Getz</t>
+          <t>Stephen Sanchez</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>The Girl From Ipanema</t>
+          <t>Evangeline</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7znjbX9XdoQayIrVNdd50Z</t>
+          <t>https://open.spotify.com/track/7vANkmN3lIED9QkNS48N14</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Elvis Presley</t>
+          <t>SZA</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Blue Suede Shoes</t>
+          <t>Kill Bill</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/47gmoUrZV3w20JAnQOZMcO</t>
+          <t>https://open.spotify.com/track/1Qrg8KqiBpW07V7PNxwwwL</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Elvis Presley</t>
+          <t>Sabrina Carpenter</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Burning Love</t>
+          <t>Espresso</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7zMUCLm1TN9o9JlLISztxO</t>
+          <t>https://open.spotify.com/track/2qSkIjg1o9h3YT9RAgYN75</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Leon Bridges</t>
+          <t>Selena Gomez</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Coming Home</t>
+          <t>Rare</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/65GbQI9VDTs7vo6MJL2iJA</t>
+          <t>https://open.spotify.com/track/7HMmFQsKsljwTw8bS7lu19</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Mayer Hawthorne</t>
+          <t>Ritt Momney</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>The Walk</t>
+          <t>Put Your Records On</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7tBZa65xUKMMan9tIMPqbi</t>
+          <t>https://open.spotify.com/track/6AGOKlMZWLCaEJGnaROtF9</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Antique</t>
+          <t>Childish Gambino</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Opa Opa</t>
+          <t>Redbone</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0YWmrHLItfjD7pJ8NzlXke</t>
+          <t>https://open.spotify.com/track/0WtDGnWL2KrMCk0mI1Gpwz</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Ace of Base</t>
+          <t>Khalid</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>All That She Wants</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/12BbMJsJi65mxneq6c9Lm7</t>
+          <t>https://open.spotify.com/track/152lZdxL1OR0ZMW6KquMif</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>The Cure</t>
+          <t>The Weeknd</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Friday I'm In Love</t>
+          <t>Is There Someone Else?</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4QlzkaRHtU8gAdwqjWmO8n</t>
+          <t>https://open.spotify.com/track/0mL82sxCRjrs3br407IdJh</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MC Hammer</t>
+          <t>Doja Cat</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>U Can't Touch This</t>
+          <t>Need to Know</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1B75hgRqe7A4fwee3g3Wmu</t>
+          <t>https://open.spotify.com/track/10hcDov7xmcRviA8jLwEaI</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Spin Doctors</t>
+          <t>Destiny's Child</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Two Princes</t>
+          <t>Say My Name</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0cuq829zRNq4AEdmDJA4aw</t>
+          <t>https://open.spotify.com/track/7H6ev70Weq6DdpZyyTmUXk</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Shania Twain</t>
+          <t>Semisonic</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Man! I Feel Like A Woman!</t>
+          <t>Closing Time</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6sxptembJVty4sNtcPMAVz</t>
+          <t>https://open.spotify.com/track/6liaHE9iHh23PLVvw7lK8V</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AC/DC</t>
+          <t>UB40</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Thunderstruck</t>
+          <t>Kingston Town</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/57bgtoPSgt236HzfBOd8kj</t>
+          <t>https://open.spotify.com/track/1YnVYHXoak0syv4xBRHQRb</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Otis Redding</t>
+          <t>The Pointer Sisters</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>(Sittin' On) the Dock of the Bay</t>
+          <t>I'm So Excited</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4Y4Gd3ty8uut6Qw43c7yJc</t>
+          <t>https://open.spotify.com/track/1ot6jEe4w4hYnsOPjd3xKQ</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>The Supremes</t>
+          <t>Wild Cherry</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Baby Love</t>
+          <t>Play That Funky Music</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5uES1C2NgkdrNHiCwf9jRr</t>
+          <t>https://open.spotify.com/track/5uuJruktM9fMdN9Va0DUMl</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Marvin Gaye, Tammi Terrell</t>
+          <t>Don McLean</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ain't No Mountain High Enough</t>
+          <t>American Pie</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7tqhbajSfrz2F7E1Z75ASX</t>
+          <t>https://open.spotify.com/track/1fDsrQ23eTAVFElUMaf38X</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>The Ronettes</t>
+          <t>Elton John</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Be My Baby</t>
+          <t>Your Song</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1WN4uNclrDuczTO3bCr8s1</t>
+          <t>https://open.spotify.com/track/38zsOOcu31XbbYj9BIPUF1</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Frank Sinatra, Count Basie</t>
+          <t>Billy Paul</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Fly Me To The Moon (In Other Words)</t>
+          <t>Me and Mrs. Jones</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5b7OgznPJJr1vHNYGyvxau</t>
+          <t>https://open.spotify.com/track/6Ro2z4RtAUew9Kz2HZWZUi</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Bobby Hebb</t>
+          <t>Chubby Checker</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Let's Twist Again</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4vju55Ag7apDL2CfotuE7Q</t>
+          <t>https://open.spotify.com/track/1INWPr855fwWdAOeecbu0W</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Etta James</t>
+          <t>Tony Dallara</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>At Last</t>
+          <t>Come Prima</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/4Hhv2vrOTy89HFRcjU3QOx</t>
+          <t>https://open.spotify.com/track/2wud13eK0j09mH4h6625g7</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>The Kinks</t>
+          <t>B.J. Thomas</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>You Really Got Me</t>
+          <t>Raindrops Keep Fallin' On My Head</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6tZdL3Zp8JgrfDbsSeSV1S</t>
+          <t>https://open.spotify.com/track/2s1Yh0AywJhLsKKZ9vM0tm</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Booker T. &amp; the M.G.'s</t>
+          <t>Donna Summer</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Green Onions</t>
+          <t>Hot Stuff</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6KKcey1w86oP0qxN8frbfD</t>
+          <t>https://open.spotify.com/track/594FzPlCmqygQMoZAkGegM</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Lesley Gore</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>It's My Party</t>
+          <t>The Final Countdown</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1Pq47iFLC5U7j8xeNiNcuS</t>
+          <t>https://open.spotify.com/track/3MrRksHupTVEQ7YbA0FsZK</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>French 79, Kid Francescoli</t>
+          <t>Nina Simone</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lovin' Feeling</t>
+          <t>Feeling Good</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5pxtj7cCnv2hZe6mbS2MBx</t>
+          <t>https://open.spotify.com/track/6Rqn2GFlmvmV4w9Ala0I1e</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Laufey</t>
+          <t>Run–D.M.C.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>From The Start</t>
+          <t>It's Tricky</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/43iIQbw5hx986dUEZbr3eN</t>
+          <t>https://open.spotify.com/track/6jBCehpNMkwFVF3dz4nLIW</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Stephen Sanchez</t>
+          <t>Harpo</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Evangeline</t>
+          <t>Moviestar</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7vANkmN3lIED9QkNS48N14</t>
+          <t>https://open.spotify.com/track/4t9EUCjCPbdfqtOH25k8AU</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SZA</t>
+          <t>Alcazar</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Kill Bill</t>
+          <t>Crying at the Discoteque - Radio Edit</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1Qrg8KqiBpW07V7PNxwwwL</t>
+          <t>https://open.spotify.com/track/6eVJVmtSb2hISLsEIuWY5N</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Sabrina Carpenter</t>
+          <t>KISS</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Espresso</t>
+          <t>Detroit Rock City</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2qSkIjg1o9h3YT9RAgYN75</t>
+          <t>https://open.spotify.com/track/0yd0NF2DaG04KLqJT5LLV2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Selena Gomez</t>
+          <t>Jalen Ngonda</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>If You Don't Want My Love</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7HMmFQsKsljwTw8bS7lu19</t>
+          <t>https://open.spotify.com/track/4A48ckONJNoXU5smWT9CeG</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Ritt Momney</t>
+          <t>Haddaway</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Put Your Records On</t>
+          <t>What Is Love - 7" Mix</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6AGOKlMZWLCaEJGnaROtF9</t>
+          <t>https://open.spotify.com/track/0OTO8ZF2YqFQVw9hnZylTd</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Childish Gambino</t>
+          <t>Earth, Wind &amp; Fire, The Emotions</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Redbone</t>
+          <t>Boogie Wonderland</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0WtDGnWL2KrMCk0mI1Gpwz</t>
+          <t>https://open.spotify.com/track/6ztstiyZL6FXzh4aG46ZPD</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Khalid</t>
+          <t>Vampire Weekend</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Campus</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/152lZdxL1OR0ZMW6KquMif</t>
+          <t>https://open.spotify.com/track/5dUFfk2cwD8GiJPS03mYN0</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>The Weeknd</t>
+          <t>Ace of Base</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Is There Someone Else?</t>
+          <t>The Sign</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0mL82sxCRjrs3br407IdJh</t>
+          <t>https://open.spotify.com/track/0hrBpAOgrt8RXigk83LLNE</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Doja Cat</t>
+          <t>Amy Winehouse</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Need to Know</t>
+          <t>You Know I'm No Good</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/10hcDov7xmcRviA8jLwEaI</t>
+          <t>https://open.spotify.com/track/0DMRKqrpd0QO4RWiEdMib0</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Destiny's Child</t>
+          <t>Red Hot Chili Peppers</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Say My Name</t>
+          <t>Under the Bridge</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7H6ev70Weq6DdpZyyTmUXk</t>
+          <t>https://open.spotify.com/track/3d9DChrdc6BOeFsbrZ3Is0</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Semisonic</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Closing Time</t>
+          <t>Drops of Jupiter (Tell Me)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6liaHE9iHh23PLVvw7lK8V</t>
+          <t>https://open.spotify.com/track/2hKdd3qO7cWr2Jo0Bcs0MA</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>UB40</t>
+          <t>Owl City, Carly Rae Jepsen</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kingston Town</t>
+          <t>Good Time</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1YnVYHXoak0syv4xBRHQRb</t>
+          <t>https://open.spotify.com/track/1kPpge9JDLpcj15qgrPbYX</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>The Pointer Sisters</t>
+          <t>Madonna</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>I'm So Excited</t>
+          <t>Material Girl - 2024 Remaster</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1ot6jEe4w4hYnsOPjd3xKQ</t>
+          <t>https://open.spotify.com/track/4tcauy2xyIv1q0ckvQmc4H</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Wild Cherry</t>
+          <t>The Kooks</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Play That Funky Music</t>
+          <t>She Moves In Her Own Way</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5uuJruktM9fMdN9Va0DUMl</t>
+          <t>https://open.spotify.com/track/5xoUgPXbMNUmoHU0Enwtwq</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Don McLean</t>
+          <t>Tina Turner</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>American Pie</t>
+          <t>Proud Mary</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1fDsrQ23eTAVFElUMaf38X</t>
+          <t>https://open.spotify.com/track/6gJdDnF2TzfA1WPMXuCa3x</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Elton John</t>
+          <t>Corona</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Your Song</t>
+          <t>Baby Baby</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/38zsOOcu31XbbYj9BIPUF1</t>
+          <t>https://open.spotify.com/track/4lDKORchTM8Rd0PFQFXTLX</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Billy Paul</t>
+          <t>Britney Spears</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Me and Mrs. Jones</t>
+          <t>Womanizer</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/6Ro2z4RtAUew9Kz2HZWZUi</t>
+          <t>https://open.spotify.com/track/4fixebDZAVToLbUCuEloa2</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Chubby Checker</t>
+          <t>Spin Doctors</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Let's Twist Again</t>
+          <t>Little Miss Can't Be Wrong</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/1INWPr855fwWdAOeecbu0W</t>
+          <t>https://open.spotify.com/track/1uCqIhOePc6hDMG2ijk8sp</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Tony Dallara</t>
+          <t>Coldplay</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Come Prima</t>
+          <t>Trouble</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2wud13eK0j09mH4h6625g7</t>
+          <t>https://open.spotify.com/track/0R8P9KfGJCDULmlEoBagcO</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Starship</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/0HzjKCZmFhwcO2vnnHpj9q</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Busted</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>What I Go To School For</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/3EktVeMMB0WLZxbmuAgkRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Bon Jovi</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Always</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/0Z2CgMqTyPxSMJVcZZ2rGX</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>The Kinks</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Lola (2020 Stereo Remaster)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/4Tjs8b6jL1s18sjURJtswp</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Capital Cities</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Safe And Sound</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/1fzJyTCKeZuTSLByCsLRHl</t>
         </is>
       </c>
     </row>
